--- a/inst_env_db/input/shadow_eco_knoema.xlsx
+++ b/inst_env_db/input/shadow_eco_knoema.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="919">
   <si>
     <t>Country</t>
   </si>
@@ -2773,6 +2773,9 @@
   </si>
   <si>
     <t>62.7</t>
+  </si>
+  <si>
+    <t>QA</t>
   </si>
 </sst>
 </file>
@@ -3102,15 +3105,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q184"/>
+  <dimension ref="A1:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>108</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>127</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>135</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>147</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>157</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>165</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>175</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>186</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>205</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>213</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>224</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>153</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>244</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>250</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>260</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>276</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>283</v>
       </c>
@@ -4700,15 +4701,15 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
@@ -4726,307 +4727,307 @@
         <v>24</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="O34" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="M36" s="1" t="s">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>289</v>
+        <v>143</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>258</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
@@ -5044,1632 +5045,1632 @@
         <v>24</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>338</v>
+        <v>208</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>336</v>
+        <v>203</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="L44" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="L53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L39" s="1" t="s">
+      <c r="P65" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J42" s="1" t="s">
+      <c r="L66" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N67" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="M42" s="1" t="s">
+      <c r="P67" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="Q67" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="B68" s="1" t="s">
-        <v>502</v>
+        <v>311</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>503</v>
+        <v>312</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>20</v>
@@ -6687,34 +6688,34 @@
         <v>24</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>504</v>
+        <v>314</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>505</v>
+        <v>147</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>506</v>
+        <v>315</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>507</v>
+        <v>316</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>508</v>
+        <v>317</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>509</v>
+        <v>319</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>510</v>
       </c>
@@ -6767,7 +6768,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>513</v>
       </c>
@@ -6820,7 +6821,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>524</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>529</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>532</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>536</v>
       </c>
@@ -7032,7 +7033,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>540</v>
       </c>
@@ -7085,7 +7086,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>544</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>549</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>559</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>565</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>569</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>573</v>
       </c>
@@ -7403,7 +7404,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>577</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>583</v>
       </c>
@@ -7509,7 +7510,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>586</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>592</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>596</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>599</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>605</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>608</v>
       </c>
@@ -7827,7 +7828,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>611</v>
       </c>
@@ -7880,7 +7881,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>615</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>619</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>626</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>631</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>635</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>639</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>643</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>648</v>
       </c>
@@ -8304,7 +8305,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>652</v>
       </c>
@@ -8357,7 +8358,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>655</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>658</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>664</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>667</v>
       </c>
@@ -8569,7 +8570,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>671</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>675</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>678</v>
       </c>
@@ -8728,7 +8729,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>681</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>685</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>688</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>694</v>
       </c>
@@ -8940,7 +8941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>697</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>701</v>
       </c>
@@ -9046,7 +9047,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>707</v>
       </c>
@@ -9099,7 +9100,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>710</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>719</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>722</v>
       </c>
@@ -9258,7 +9259,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>725</v>
       </c>
@@ -9311,7 +9312,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>728</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>736</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>739</v>
       </c>
@@ -9470,7 +9471,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>742</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>751</v>
       </c>
@@ -9576,7 +9577,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>754</v>
       </c>
@@ -9629,7 +9630,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>757</v>
       </c>
@@ -9682,7 +9683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>760</v>
       </c>
@@ -9690,7 +9691,7 @@
         <v>761</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>22</v>
+        <v>918</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>20</v>
@@ -9735,7 +9736,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>762</v>
       </c>
@@ -9788,7 +9789,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>765</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>768</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>771</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>775</v>
       </c>
@@ -10000,7 +10001,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>778</v>
       </c>
@@ -10053,7 +10054,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>783</v>
       </c>
@@ -10106,7 +10107,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>787</v>
       </c>
@@ -10159,7 +10160,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>790</v>
       </c>
@@ -10212,7 +10213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>796</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>799</v>
       </c>
@@ -10318,7 +10319,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>802</v>
       </c>
@@ -10371,7 +10372,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>806</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>809</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>812</v>
       </c>
@@ -10530,7 +10531,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>815</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>818</v>
       </c>
@@ -10636,7 +10637,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>821</v>
       </c>
@@ -10689,7 +10690,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>829</v>
       </c>
@@ -10742,7 +10743,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>832</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>838</v>
       </c>
@@ -10848,7 +10849,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>841</v>
       </c>
@@ -10901,7 +10902,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>849</v>
       </c>
@@ -10954,7 +10955,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>855</v>
       </c>
@@ -11007,7 +11008,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>858</v>
       </c>
@@ -11060,7 +11061,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>861</v>
       </c>
@@ -11113,7 +11114,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>864</v>
       </c>
@@ -11166,7 +11167,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>867</v>
       </c>
@@ -11219,7 +11220,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>870</v>
       </c>
@@ -11272,7 +11273,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>877</v>
       </c>
@@ -11325,7 +11326,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>881</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>885</v>
       </c>
@@ -11431,7 +11432,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>890</v>
       </c>
@@ -11484,7 +11485,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>896</v>
       </c>
@@ -11537,7 +11538,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>899</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>903</v>
       </c>
@@ -11643,7 +11644,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>906</v>
       </c>
@@ -11696,7 +11697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>909</v>
       </c>
@@ -11749,27 +11750,10 @@
         <v>917</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState ref="A2:Q163">
+    <sortCondition ref="B2:B163"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>